--- a/biology/Médecine/Piétin_(dermatite)/Piétin_(dermatite).xlsx
+++ b/biology/Médecine/Piétin_(dermatite)/Piétin_(dermatite).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le piétin est une maladie pouvant être confondue avec une dermatite interdigitée contagieuse[1]. Cette maladie s'attaque à la corne (sabots) des petits ruminants. Elle est due à l'action de deux bactéries anaérobies qui sont Fusobacterium necrophorum et Dichelobacter nodosus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piétin est une maladie pouvant être confondue avec une dermatite interdigitée contagieuse. Cette maladie s'attaque à la corne (sabots) des petits ruminants. Elle est due à l'action de deux bactéries anaérobies qui sont Fusobacterium necrophorum et Dichelobacter nodosus.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Modes de transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La contamination entre les animaux ne se fait pas directement, mais indirectement via l'environnement contaminé. Cette maladie infectieuse est donc transmise par les sols et par des animaux contaminés. Les agents pathogènes sont amenés sur l'exploitation par le biais de nouveaux animaux (principalement), de matériaux ou encore de mains-d’œuvre transportant ces agents. Les animaux infectés contaminent rapidement l'environnement de l'élevage. En se déplaçant, ils vont étaler les agents sur les différentes surfaces comme les stabulations, les chemins ou les pâtures.
-Le premier agent, Fusobacterium necrophorum, va provoquer chez l'animal une inflammation de l'espace interdigité (ou dermatite). Le second, Dichelobacter nodosus, va profiter de cette lésion pour y pénétrer et par la suite se développer et provoquer la nécrose de la corne[2].
+Le premier agent, Fusobacterium necrophorum, va provoquer chez l'animal une inflammation de l'espace interdigité (ou dermatite). Le second, Dichelobacter nodosus, va profiter de cette lésion pour y pénétrer et par la suite se développer et provoquer la nécrose de la corne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Évolution de la maladie et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes de la maladie vont dépendre de la virulence des agents pathogènes et ne vont pas forcément toucher tous les pieds de l'animal. C'est la première cause de boiterie en élevage ovin.
 Les symptômes spécifiques selon l'évolution de la maladie :
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Espèces touchées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principales espèces touchées par le piétin sont les ovins et les caprins. Plus rarement, on peut retrouver cette maladie chez les bovins et autres petits ruminants[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales espèces touchées par le piétin sont les ovins et les caprins. Plus rarement, on peut retrouver cette maladie chez les bovins et autres petits ruminants.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Zone géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie est présente sur tous les continents sauf l’Antarctique et particulièrement dans les zones d'élevage ovin.
 </t>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
+          <t>Piétin_(dermatite)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,12 +668,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liés à l'animal
-Il existe des races plus sensibles à cette maladie comme le Mérinos.
+          <t>Liés à l'animal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des races plus sensibles à cette maladie comme le Mérinos.
 Le poids de l'animal peut aussi être source de facteurs de risque, cela concerne principalement les animaux lourds comme les béliers, les brebis gestantes ou les races bouchères. De plus, le poids important de l'animal augmente l’intensité de la douleur et les sabots sont plus sollicités.
 Dans le cas d'une usure irrégulière de la corne, cette dernière peut être plus fragile et irritable avec l'accumulation de terre, de fumier et de cailloux.
-Liés aux conditions d'élevage
-Les conditions d'élevage jouent un rôle très important. Elles sont nombreuses et augmentent les risques de contamination :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Piétin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Facteurs de risques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liés aux conditions d'élevage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les conditions d'élevage jouent un rôle très important. Elles sont nombreuses et augmentent les risques de contamination :
 Absence ou mauvais parage (pas assez efficace)
 Mauvaises conditions de vie : chargement trop élevé d'animaux, litière sale…
 Sol basique (qui rend propice le développement de l'agent pathogène)
@@ -665,79 +725,153 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Piétin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prévention et traitement de la maladie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Au vu de l'évolution de la maladie, il faut qu'elle soit repérée le plus tôt possible afin de traiter le plus vite possible le troupeau et éviter les souffrances de l'animal.
-Prévention
-Plusieurs systèmes de prévention peuvent être mis en place au sein d'une exploitation. On retrouve les préventions suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Piétin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prévention et traitement de la maladie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs systèmes de prévention peuvent être mis en place au sein d'une exploitation. On retrouve les préventions suivantes :
 Contrôler régulièrement les onglons et parer au moins une fois par an
 Apport de sulfate de zinc dans l'alimentation
-Mise en place de pédiluves à renouveler toutes les 300 brebis de préférence avec une solution de sulfate de zinc à 10-20 %, et ensuite une aire bétonnée et propre pour le séchage[4]
+Mise en place de pédiluves à renouveler toutes les 300 brebis de préférence avec une solution de sulfate de zinc à 10-20 %, et ensuite une aire bétonnée et propre pour le séchage
 Vaccination
 Veiller à avoir de bonnes conditions d'élevage et le moins possible de boue sur les passages quotidiens des animaux
 Mise en quarantaine des nouveaux animaux
 Sélectionner des individus et des races plus résistantes naturellement à la maladie
-Le zinc utilisé dans l'alimentation et les pédiluves permet de régénérer la corne[5], de la renforcer et d'exercer des actions antibactériennes.
-Traitement
-Le mieux est de réformer les animaux gravement atteints ou atteints de manière chronique pour diminuer les risques. Pour les cas les plus graves, un traitement d'antibiotiques en injection ou en spray sur les plaies doit être réalisé. Par la suite, le parage et la désinfection des onglons semblent obligatoire. À la suite du parage, le mieux est de regrouper systématiquement les onglons et de les brûler pour éviter de disséminer davantage la maladie sur l'exploitation et son environnement[6]. L'association avec un pédiluve contenant une solution de sulfate de zinc est très intéressante, et par la suite placer les animaux sur un sol bétonné ou propre pour que la corne sèche. Ce sulfate de zinc peut également être apporté dans l'alimentation et permettra une meilleure pousse de la corne.
+Le zinc utilisé dans l'alimentation et les pédiluves permet de régénérer la corne, de la renforcer et d'exercer des actions antibactériennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Piétin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prévention et traitement de la maladie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mieux est de réformer les animaux gravement atteints ou atteints de manière chronique pour diminuer les risques. Pour les cas les plus graves, un traitement d'antibiotiques en injection ou en spray sur les plaies doit être réalisé. Par la suite, le parage et la désinfection des onglons semblent obligatoire. À la suite du parage, le mieux est de regrouper systématiquement les onglons et de les brûler pour éviter de disséminer davantage la maladie sur l'exploitation et son environnement. L'association avec un pédiluve contenant une solution de sulfate de zinc est très intéressante, et par la suite placer les animaux sur un sol bétonné ou propre pour que la corne sèche. Ce sulfate de zinc peut également être apporté dans l'alimentation et permettra une meilleure pousse de la corne.
 Certains éleveurs utilisent également la vaccination pour accélérer la guérison de la maladie.
 Plusieurs produits de pédiluves sont actuellement commercialisés, utilisant comme composé principal du zinc. Le produit est généralement sous forme de poudre à diluer dans de l'eau pour faciliter son utilisation.
-Un complément avec de la vitamine B8 peut également être utilisé car cette dernière a un rôle dans la formation de la corne, et dans le cas du piétin, elle va améliorer la dureté de l'onglon et va les assécher[7]. Cette vitamine est également commercialisée sous forme de mélange pour traiter le piétin.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pi%C3%A9tin_(dermatite)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Un complément avec de la vitamine B8 peut également être utilisé car cette dernière a un rôle dans la formation de la corne, et dans le cas du piétin, elle va améliorer la dureté de l'onglon et va les assécher. Cette vitamine est également commercialisée sous forme de mélange pour traiter le piétin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Piétin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9tin_(dermatite)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Statut de la maladie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le piétin n'est pas classé comme maladie réglementée car il ne présente pas de danger sanitaire, bien qu'il constitue un réel problème dans certains élevages en provoquant des souffrances chez l'animal. C'est une maladie qui une fois installée sur l'élevage ne sera jamais détruite, il faut adapter ses méthodes d'élevage. Outre la souffrance, cette maladie provoquant des boiteries sur les brebis peut causer un amaigrissement, une baisse de la production de laine et de lait (de 20%). La fertilité, le taux d'agnelage ou encore le poids de naissance des agneaux et de la croissance (20% de retard) sont également impactés. Ces boiteries peuvent causer une perte allant jusqu'à 9,40 euros par brebis[5].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piétin n'est pas classé comme maladie réglementée car il ne présente pas de danger sanitaire, bien qu'il constitue un réel problème dans certains élevages en provoquant des souffrances chez l'animal. C'est une maladie qui une fois installée sur l'élevage ne sera jamais détruite, il faut adapter ses méthodes d'élevage. Outre la souffrance, cette maladie provoquant des boiteries sur les brebis peut causer un amaigrissement, une baisse de la production de laine et de lait (de 20%). La fertilité, le taux d'agnelage ou encore le poids de naissance des agneaux et de la croissance (20% de retard) sont également impactés. Ces boiteries peuvent causer une perte allant jusqu'à 9,40 euros par brebis.
 </t>
         </is>
       </c>
